--- a/실전/서울시 미세먼지/day.xlsx
+++ b/실전/서울시 미세먼지/day.xlsx
@@ -468,7 +468,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G9:G10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
